--- a/[1분반]2013136121_조성우_마이크로프로세서_재료구매신청서.xlsx
+++ b/[1분반]2013136121_조성우_마이크로프로세서_재료구매신청서.xlsx
@@ -87,10 +87,6 @@
   </si>
   <si>
     <t>조성우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.6 128x64 Graphic OLED(MCOT128064EY-WM)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -154,14 +150,17 @@
     <t>http://www.eleparts.co.kr/EPXCTKGM</t>
   </si>
   <si>
-    <t>http://www.eleparts.co.kr/EPXHFG6B</t>
-  </si>
-  <si>
     <t>http://www.eleparts.co.kr/EPX38H96</t>
   </si>
   <si>
     <t>arduino portable game</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.eleparts.co.kr/EPXDYVCA</t>
+  </si>
+  <si>
+    <t>1.3inch OLED (B)</t>
   </si>
 </sst>
 </file>
@@ -290,6 +289,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -298,15 +306,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -591,7 +590,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:G5"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -605,66 +604,66 @@
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="6">
         <v>2013136121</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
+      <c r="B5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -689,24 +688,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="7">
-        <v>33770</v>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4">
+        <v>9700</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="7">
-        <v>33570</v>
+      <c r="E7" s="4">
+        <v>9700</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -714,20 +713,20 @@
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4">
         <v>21100</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="4">
         <v>21100</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -735,20 +734,20 @@
       <c r="A9" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="7">
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4">
         <v>3500</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="4">
         <v>3500</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -756,8 +755,8 @@
       <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>19</v>
+      <c r="B10" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>

--- a/[1분반]2013136121_조성우_마이크로프로세서_재료구매신청서.xlsx
+++ b/[1분반]2013136121_조성우_마이크로프로세서_재료구매신청서.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9690"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14085"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>과제명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,10 +87,6 @@
   </si>
   <si>
     <t>조성우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조이스틱 모듈(DFR0008)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -110,49 +106,9 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">배터리 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="함초롬바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>건전지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>http://www.eleparts.co.kr/EPXCTKGM</t>
   </si>
   <si>
-    <t>http://www.eleparts.co.kr/EPX38H96</t>
-  </si>
-  <si>
     <t>arduino portable game</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,13 +117,28 @@
   </si>
   <si>
     <t>1.3inch OLED (B)</t>
+  </si>
+  <si>
+    <t>조이스틱 모듈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(통합 부품을 선정하기로 함)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배터리 홀더 4xAA형 (Battery Holder - 4xAA to Barrel Jack Connector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://artrobot.co.kr/front/php/product.php?product_no=46&amp;main_cate_no=45&amp;display_group=1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,6 +169,15 @@
       <family val="1"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color rgb="FF333333"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -279,7 +259,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -306,6 +286,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -590,7 +573,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -657,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -693,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" s="4">
         <v>9700</v>
@@ -705,28 +688,24 @@
         <v>9700</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="4">
-        <v>21100</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C8" s="4"/>
       <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="4">
-        <v>21100</v>
-      </c>
+      <c r="E8" s="4"/>
       <c r="F8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -735,7 +714,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="4">
         <v>3500</v>
@@ -747,21 +726,29 @@
         <v>3500</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="57" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="C10" s="4">
+        <v>4500</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4500</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>24</v>
+      </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">

--- a/[1분반]2013136121_조성우_마이크로프로세서_재료구매신청서.xlsx
+++ b/[1분반]2013136121_조성우_마이크로프로세서_재료구매신청서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\대학원\조교\2016년 2학기\마이크로프로세서\stu\2013136121\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -119,26 +119,25 @@
     <t>1.3inch OLED (B)</t>
   </si>
   <si>
-    <t>조이스틱 모듈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(통합 부품을 선정하기로 함)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>배터리 홀더 4xAA형 (Battery Holder - 4xAA to Barrel Jack Connector</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://artrobot.co.kr/front/php/product.php?product_no=46&amp;main_cate_no=45&amp;display_group=1</t>
+  </si>
+  <si>
+    <t>조이스틱 쉴드</t>
+  </si>
+  <si>
+    <t>http://www.devicemart.co.kr/1076924</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +177,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -254,12 +271,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -278,6 +298,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -287,12 +310,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -573,82 +600,82 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="3" width="17.125" customWidth="1"/>
     <col min="6" max="6" width="33.625" customWidth="1"/>
     <col min="7" max="7" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="7">
         <v>2013136121</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -671,7 +698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -692,24 +719,29 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="4"/>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7220</v>
+      </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="2" t="s">
-        <v>22</v>
+      <c r="E8" s="2">
+        <f>C8*D8</f>
+        <v>7220</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="27.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="27">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -730,12 +762,12 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="57" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="48">
       <c r="A10" s="2">
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="4">
         <v>4500</v>
@@ -746,12 +778,12 @@
       <c r="E10" s="4">
         <v>4500</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>24</v>
+      <c r="F10" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -760,7 +792,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -769,7 +801,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -778,7 +810,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -787,7 +819,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -796,7 +828,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -805,14 +837,17 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="11">
+        <f>SUM(E7:E16)</f>
+        <v>24920</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
@@ -825,7 +860,10 @@
     <mergeCell ref="B1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F8" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId2"/>
 </worksheet>
 </file>